--- a/public_list2017/20170201_20170228_public_list.xlsx
+++ b/public_list2017/20170201_20170228_public_list.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27585" windowHeight="10860"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="1128">
   <si>
     <t>nid</t>
   </si>
@@ -3404,17 +3408,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3422,28 +3430,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3733,19 +3751,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="J237" sqref="J237"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="92.28515625" customWidth="1"/>
+    <col min="10" max="10" width="41.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3761,7 +3782,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -3777,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11020797</v>
       </c>
@@ -3793,7 +3814,7 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>20170202084112</v>
       </c>
       <c r="G2" t="s">
@@ -3809,7 +3830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11033326</v>
       </c>
@@ -3825,7 +3846,7 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>20170202102234</v>
       </c>
       <c r="G3" t="s">
@@ -3841,7 +3862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11033327</v>
       </c>
@@ -3857,7 +3878,7 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>20170202102444</v>
       </c>
       <c r="G4" t="s">
@@ -3873,7 +3894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11033328</v>
       </c>
@@ -3889,7 +3910,7 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>20170202103546</v>
       </c>
       <c r="G5" t="s">
@@ -3905,7 +3926,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11033330</v>
       </c>
@@ -3921,7 +3942,7 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>20170202105847</v>
       </c>
       <c r="G6" t="s">
@@ -3937,7 +3958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11033332</v>
       </c>
@@ -3953,7 +3974,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>20170202110440</v>
       </c>
       <c r="G7" t="s">
@@ -3969,7 +3990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11033339</v>
       </c>
@@ -3985,7 +4006,7 @@
       <c r="E8" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>20170202133051</v>
       </c>
       <c r="G8" t="s">
@@ -4001,7 +4022,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11033341</v>
       </c>
@@ -4017,7 +4038,7 @@
       <c r="E9" t="s">
         <v>52</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>20170202135351</v>
       </c>
       <c r="G9" t="s">
@@ -4033,7 +4054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11034389</v>
       </c>
@@ -4049,7 +4070,7 @@
       <c r="E10" t="s">
         <v>57</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>20170202000000</v>
       </c>
       <c r="G10" t="s">
@@ -4065,7 +4086,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11034393</v>
       </c>
@@ -4081,7 +4102,7 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>20170202145538</v>
       </c>
       <c r="G11" t="s">
@@ -4097,7 +4118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11034402</v>
       </c>
@@ -4113,7 +4134,7 @@
       <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>20170202165110</v>
       </c>
       <c r="G12" t="s">
@@ -4129,7 +4150,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11034403</v>
       </c>
@@ -4145,7 +4166,7 @@
       <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>20170202165114</v>
       </c>
       <c r="G13" t="s">
@@ -4161,7 +4182,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11034405</v>
       </c>
@@ -4177,7 +4198,7 @@
       <c r="E14" t="s">
         <v>77</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>20170202165549</v>
       </c>
       <c r="G14" t="s">
@@ -4193,7 +4214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11034406</v>
       </c>
@@ -4209,7 +4230,7 @@
       <c r="E15" t="s">
         <v>77</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>20170202000000</v>
       </c>
       <c r="G15" t="s">
@@ -4225,7 +4246,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11034410</v>
       </c>
@@ -4241,7 +4262,7 @@
       <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>20170202183436</v>
       </c>
       <c r="G16" t="s">
@@ -4257,7 +4278,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11034416</v>
       </c>
@@ -4273,7 +4294,7 @@
       <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>20170202223829</v>
       </c>
       <c r="G17" t="s">
@@ -4289,7 +4310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>11034422</v>
       </c>
@@ -4305,7 +4326,7 @@
       <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>20170203000000</v>
       </c>
       <c r="G18" t="s">
@@ -4321,7 +4342,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11047231</v>
       </c>
@@ -4337,7 +4358,7 @@
       <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>20170203100327</v>
       </c>
       <c r="G19" t="s">
@@ -4353,7 +4374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11047234</v>
       </c>
@@ -4369,7 +4390,7 @@
       <c r="E20" t="s">
         <v>104</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>20170203000000</v>
       </c>
       <c r="G20" t="s">
@@ -4385,7 +4406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11047239</v>
       </c>
@@ -4401,7 +4422,7 @@
       <c r="E21" t="s">
         <v>109</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>20170203131708</v>
       </c>
       <c r="G21" t="s">
@@ -4417,7 +4438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11047241</v>
       </c>
@@ -4433,7 +4454,7 @@
       <c r="E22" t="s">
         <v>114</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>20170203135022</v>
       </c>
       <c r="G22" t="s">
@@ -4449,7 +4470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11048185</v>
       </c>
@@ -4465,7 +4486,7 @@
       <c r="E23" t="s">
         <v>119</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>20170203145118</v>
       </c>
       <c r="G23" t="s">
@@ -4481,7 +4502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11048187</v>
       </c>
@@ -4497,7 +4518,7 @@
       <c r="E24" t="s">
         <v>124</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>20170203000000</v>
       </c>
       <c r="G24" t="s">
@@ -4513,7 +4534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11048193</v>
       </c>
@@ -4529,7 +4550,7 @@
       <c r="E25" t="s">
         <v>129</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>20170203000000</v>
       </c>
       <c r="G25" t="s">
@@ -4545,7 +4566,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11048205</v>
       </c>
@@ -4561,7 +4582,7 @@
       <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>20170203170314</v>
       </c>
       <c r="G26" t="s">
@@ -4577,7 +4598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11048206</v>
       </c>
@@ -4593,7 +4614,7 @@
       <c r="E27" t="s">
         <v>140</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>20170203170637</v>
       </c>
       <c r="G27" t="s">
@@ -4609,7 +4630,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11048209</v>
       </c>
@@ -4625,7 +4646,7 @@
       <c r="E28" t="s">
         <v>145</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>20170203174736</v>
       </c>
       <c r="G28" t="s">
@@ -4641,7 +4662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11048210</v>
       </c>
@@ -4657,7 +4678,7 @@
       <c r="E29" t="s">
         <v>150</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="1">
         <v>20170203184405</v>
       </c>
       <c r="G29" t="s">
@@ -4673,7 +4694,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11059260</v>
       </c>
@@ -4689,7 +4710,7 @@
       <c r="E30" t="s">
         <v>156</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>20170204112305</v>
       </c>
       <c r="G30" t="s">
@@ -4705,7 +4726,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11060542</v>
       </c>
@@ -4721,7 +4742,7 @@
       <c r="E31" t="s">
         <v>161</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>20170205000000</v>
       </c>
       <c r="G31" t="s">
@@ -4737,7 +4758,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11060662</v>
       </c>
@@ -4753,7 +4774,7 @@
       <c r="E32" t="s">
         <v>166</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>20170206100031</v>
       </c>
       <c r="G32" t="s">
@@ -4769,7 +4790,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11060667</v>
       </c>
@@ -4785,7 +4806,7 @@
       <c r="E33" t="s">
         <v>171</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>20170206000000</v>
       </c>
       <c r="G33" t="s">
@@ -4801,7 +4822,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11060672</v>
       </c>
@@ -4817,7 +4838,7 @@
       <c r="E34" t="s">
         <v>177</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>20170206000000</v>
       </c>
       <c r="G34" t="s">
@@ -4833,7 +4854,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11060675</v>
       </c>
@@ -4849,7 +4870,7 @@
       <c r="E35" t="s">
         <v>183</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>20170206000000</v>
       </c>
       <c r="G35" t="s">
@@ -4865,7 +4886,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11060678</v>
       </c>
@@ -4881,7 +4902,7 @@
       <c r="E36" t="s">
         <v>77</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>20170206135331</v>
       </c>
       <c r="G36" t="s">
@@ -4897,7 +4918,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11063250</v>
       </c>
@@ -4913,7 +4934,7 @@
       <c r="E37" t="s">
         <v>192</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>20170206165054</v>
       </c>
       <c r="G37" t="s">
@@ -4929,7 +4950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11063252</v>
       </c>
@@ -4945,7 +4966,7 @@
       <c r="E38" t="s">
         <v>197</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>20170206000000</v>
       </c>
       <c r="G38" t="s">
@@ -4961,7 +4982,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11063258</v>
       </c>
@@ -4977,7 +4998,7 @@
       <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>20170206174839</v>
       </c>
       <c r="G39" t="s">
@@ -4993,7 +5014,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11063259</v>
       </c>
@@ -5009,7 +5030,7 @@
       <c r="E40" t="s">
         <v>207</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>20170206180910</v>
       </c>
       <c r="G40" t="s">
@@ -5025,7 +5046,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11063260</v>
       </c>
@@ -5041,7 +5062,7 @@
       <c r="E41" t="s">
         <v>213</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>20170206191954</v>
       </c>
       <c r="G41" t="s">
@@ -5057,7 +5078,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11063264</v>
       </c>
@@ -5073,7 +5094,7 @@
       <c r="E42" t="s">
         <v>218</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>20170206195152</v>
       </c>
       <c r="G42" t="s">
@@ -5089,7 +5110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11063267</v>
       </c>
@@ -5105,7 +5126,7 @@
       <c r="E43" t="s">
         <v>223</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>20170206214900</v>
       </c>
       <c r="G43" t="s">
@@ -5121,7 +5142,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11070138</v>
       </c>
@@ -5137,7 +5158,7 @@
       <c r="E44" t="s">
         <v>228</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>20170207092645</v>
       </c>
       <c r="G44" t="s">
@@ -5153,7 +5174,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11070139</v>
       </c>
@@ -5169,7 +5190,7 @@
       <c r="E45" t="s">
         <v>234</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>20170207094742</v>
       </c>
       <c r="G45" t="s">
@@ -5185,7 +5206,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11070144</v>
       </c>
@@ -5201,7 +5222,7 @@
       <c r="E46" t="s">
         <v>239</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="1">
         <v>20170207100629</v>
       </c>
       <c r="G46" t="s">
@@ -5217,7 +5238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11070147</v>
       </c>
@@ -5233,7 +5254,7 @@
       <c r="E47" t="s">
         <v>244</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>20170207102714</v>
       </c>
       <c r="G47" t="s">
@@ -5249,7 +5270,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11070155</v>
       </c>
@@ -5265,7 +5286,7 @@
       <c r="E48" t="s">
         <v>249</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="1">
         <v>20170207132135</v>
       </c>
       <c r="G48" t="s">
@@ -5281,7 +5302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11070157</v>
       </c>
@@ -5297,7 +5318,7 @@
       <c r="E49" t="s">
         <v>254</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>20170207132912</v>
       </c>
       <c r="G49" t="s">
@@ -5313,7 +5334,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11070161</v>
       </c>
@@ -5329,7 +5350,7 @@
       <c r="E50" t="s">
         <v>259</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>20170207141803</v>
       </c>
       <c r="G50" t="s">
@@ -5345,7 +5366,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11070166</v>
       </c>
@@ -5361,7 +5382,7 @@
       <c r="E51" t="s">
         <v>265</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>20170207145134</v>
       </c>
       <c r="G51" t="s">
@@ -5377,7 +5398,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11071212</v>
       </c>
@@ -5393,7 +5414,7 @@
       <c r="E52" t="s">
         <v>77</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>20170207165502</v>
       </c>
       <c r="G52" t="s">
@@ -5409,7 +5430,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11071219</v>
       </c>
@@ -5425,7 +5446,7 @@
       <c r="E53" t="s">
         <v>273</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>20170207184709</v>
       </c>
       <c r="G53" t="s">
@@ -5441,7 +5462,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11077710</v>
       </c>
@@ -5457,7 +5478,7 @@
       <c r="E54" t="s">
         <v>279</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>20170207193415</v>
       </c>
       <c r="G54" t="s">
@@ -5473,7 +5494,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11089480</v>
       </c>
@@ -5489,7 +5510,7 @@
       <c r="E55" t="s">
         <v>284</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>20170208091653</v>
       </c>
       <c r="G55" t="s">
@@ -5505,7 +5526,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11089483</v>
       </c>
@@ -5521,7 +5542,7 @@
       <c r="E56" t="s">
         <v>289</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>20170208000000</v>
       </c>
       <c r="G56" t="s">
@@ -5537,7 +5558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11089486</v>
       </c>
@@ -5553,7 +5574,7 @@
       <c r="E57" t="s">
         <v>294</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>20170208103642</v>
       </c>
       <c r="G57" t="s">
@@ -5569,7 +5590,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11089489</v>
       </c>
@@ -5585,7 +5606,7 @@
       <c r="E58" t="s">
         <v>299</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="1">
         <v>20170208000000</v>
       </c>
       <c r="G58" t="s">
@@ -5601,7 +5622,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11090466</v>
       </c>
@@ -5617,7 +5638,7 @@
       <c r="E59" t="s">
         <v>304</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="1">
         <v>20170208143545</v>
       </c>
       <c r="G59" t="s">
@@ -5633,7 +5654,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11090468</v>
       </c>
@@ -5649,7 +5670,7 @@
       <c r="E60" t="s">
         <v>309</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="1">
         <v>20170208144111</v>
       </c>
       <c r="G60" t="s">
@@ -5665,7 +5686,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11090476</v>
       </c>
@@ -5681,7 +5702,7 @@
       <c r="E61" t="s">
         <v>313</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="1">
         <v>20170208000000</v>
       </c>
       <c r="G61" t="s">
@@ -5697,7 +5718,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11090478</v>
       </c>
@@ -5713,7 +5734,7 @@
       <c r="E62" t="s">
         <v>318</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>20170208172521</v>
       </c>
       <c r="G62" t="s">
@@ -5729,7 +5750,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11090482</v>
       </c>
@@ -5745,7 +5766,7 @@
       <c r="E63" t="s">
         <v>313</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>20170208181626</v>
       </c>
       <c r="G63" t="s">
@@ -5761,7 +5782,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11100729</v>
       </c>
@@ -5777,7 +5798,7 @@
       <c r="E64" t="s">
         <v>327</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>20170209091420</v>
       </c>
       <c r="G64" t="s">
@@ -5793,7 +5814,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11100734</v>
       </c>
@@ -5809,7 +5830,7 @@
       <c r="E65" t="s">
         <v>332</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>20170209093023</v>
       </c>
       <c r="G65" t="s">
@@ -5825,7 +5846,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11100741</v>
       </c>
@@ -5841,7 +5862,7 @@
       <c r="E66" t="s">
         <v>140</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>20170209101652</v>
       </c>
       <c r="G66" t="s">
@@ -5857,7 +5878,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11100743</v>
       </c>
@@ -5873,7 +5894,7 @@
       <c r="E67" t="s">
         <v>342</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>20170209110013</v>
       </c>
       <c r="G67" t="s">
@@ -5889,7 +5910,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11101824</v>
       </c>
@@ -5905,7 +5926,7 @@
       <c r="E68" t="s">
         <v>347</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>20170209150125</v>
       </c>
       <c r="G68" t="s">
@@ -5921,7 +5942,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11101836</v>
       </c>
@@ -5937,7 +5958,7 @@
       <c r="E69" t="s">
         <v>351</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>20170209165732</v>
       </c>
       <c r="G69" t="s">
@@ -5953,7 +5974,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11101839</v>
       </c>
@@ -5969,7 +5990,7 @@
       <c r="E70" t="s">
         <v>356</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="1">
         <v>20170209171113</v>
       </c>
       <c r="G70" t="s">
@@ -5985,7 +6006,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11101840</v>
       </c>
@@ -6001,7 +6022,7 @@
       <c r="E71" t="s">
         <v>361</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="1">
         <v>20170209171856</v>
       </c>
       <c r="G71" t="s">
@@ -6017,7 +6038,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>11113724</v>
       </c>
@@ -6033,7 +6054,7 @@
       <c r="E72" t="s">
         <v>366</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="1">
         <v>20170210143710</v>
       </c>
       <c r="G72" t="s">
@@ -6049,7 +6070,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11113727</v>
       </c>
@@ -6065,7 +6086,7 @@
       <c r="E73" t="s">
         <v>140</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="1">
         <v>20170210000000</v>
       </c>
       <c r="G73" t="s">
@@ -6081,7 +6102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11125874</v>
       </c>
@@ -6097,7 +6118,7 @@
       <c r="E74" t="s">
         <v>375</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="1">
         <v>20170212140049</v>
       </c>
       <c r="G74" t="s">
@@ -6113,7 +6134,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11125946</v>
       </c>
@@ -6129,7 +6150,7 @@
       <c r="E75" t="s">
         <v>380</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="1">
         <v>20170213000000</v>
       </c>
       <c r="G75" t="s">
@@ -6145,7 +6166,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11126041</v>
       </c>
@@ -6161,7 +6182,7 @@
       <c r="E76" t="s">
         <v>13</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="1">
         <v>20170213144645</v>
       </c>
       <c r="G76" t="s">
@@ -6177,7 +6198,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11126043</v>
       </c>
@@ -6193,7 +6214,7 @@
       <c r="E77" t="s">
         <v>390</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="1">
         <v>20170213160032</v>
       </c>
       <c r="G77" t="s">
@@ -6209,7 +6230,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11126044</v>
       </c>
@@ -6225,7 +6246,7 @@
       <c r="E78" t="s">
         <v>395</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>20170213165959</v>
       </c>
       <c r="G78" t="s">
@@ -6241,7 +6262,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11126045</v>
       </c>
@@ -6257,7 +6278,7 @@
       <c r="E79" t="s">
         <v>395</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="1">
         <v>20170213000000</v>
       </c>
       <c r="G79" t="s">
@@ -6273,7 +6294,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11126047</v>
       </c>
@@ -6289,7 +6310,7 @@
       <c r="E80" t="s">
         <v>395</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>20170213170806</v>
       </c>
       <c r="G80" t="s">
@@ -6305,7 +6326,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11126048</v>
       </c>
@@ -6321,7 +6342,7 @@
       <c r="E81" t="s">
         <v>395</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="1">
         <v>20170213171236</v>
       </c>
       <c r="G81" t="s">
@@ -6337,7 +6358,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>11143110</v>
       </c>
@@ -6353,7 +6374,7 @@
       <c r="E82" t="s">
         <v>409</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="1">
         <v>20170214131251</v>
       </c>
       <c r="G82" t="s">
@@ -6369,7 +6390,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11143111</v>
       </c>
@@ -6385,7 +6406,7 @@
       <c r="E83" t="s">
         <v>414</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="1">
         <v>20170214131657</v>
       </c>
       <c r="G83" t="s">
@@ -6401,7 +6422,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11144390</v>
       </c>
@@ -6417,7 +6438,7 @@
       <c r="E84" t="s">
         <v>418</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="1">
         <v>20170214000000</v>
       </c>
       <c r="G84" t="s">
@@ -6433,7 +6454,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11144391</v>
       </c>
@@ -6449,7 +6470,7 @@
       <c r="E85" t="s">
         <v>423</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="1">
         <v>20170214152659</v>
       </c>
       <c r="G85" t="s">
@@ -6465,7 +6486,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11144393</v>
       </c>
@@ -6481,7 +6502,7 @@
       <c r="E86" t="s">
         <v>135</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="1">
         <v>20170214212447</v>
       </c>
       <c r="G86" t="s">
@@ -6497,7 +6518,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11156261</v>
       </c>
@@ -6513,7 +6534,7 @@
       <c r="E87" t="s">
         <v>433</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="1">
         <v>20170215100218</v>
       </c>
       <c r="G87" t="s">
@@ -6529,7 +6550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11156262</v>
       </c>
@@ -6545,7 +6566,7 @@
       <c r="E88" t="s">
         <v>20</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="1">
         <v>20170215141955</v>
       </c>
       <c r="G88" t="s">
@@ -6561,7 +6582,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11157275</v>
       </c>
@@ -6577,7 +6598,7 @@
       <c r="E89" t="s">
         <v>442</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="1">
         <v>20170215144621</v>
       </c>
       <c r="G89" t="s">
@@ -6593,7 +6614,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11157277</v>
       </c>
@@ -6609,7 +6630,7 @@
       <c r="E90" t="s">
         <v>446</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="1">
         <v>20170215152251</v>
       </c>
       <c r="G90" t="s">
@@ -6625,7 +6646,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11157278</v>
       </c>
@@ -6641,7 +6662,7 @@
       <c r="E91" t="s">
         <v>451</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="1">
         <v>20170215174910</v>
       </c>
       <c r="G91" t="s">
@@ -6657,7 +6678,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11157279</v>
       </c>
@@ -6673,7 +6694,7 @@
       <c r="E92" t="s">
         <v>456</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="1">
         <v>20170215182134</v>
       </c>
       <c r="G92" t="s">
@@ -6689,7 +6710,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11167324</v>
       </c>
@@ -6705,7 +6726,7 @@
       <c r="E93" t="s">
         <v>461</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="1">
         <v>20170216095921</v>
       </c>
       <c r="G93" t="s">
@@ -6721,7 +6742,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>11167327</v>
       </c>
@@ -6737,7 +6758,7 @@
       <c r="E94" t="s">
         <v>466</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="1">
         <v>20170216111500</v>
       </c>
       <c r="G94" t="s">
@@ -6753,7 +6774,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11167328</v>
       </c>
@@ -6769,7 +6790,7 @@
       <c r="E95" t="s">
         <v>471</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="1">
         <v>20170216125300</v>
       </c>
       <c r="G95" t="s">
@@ -6785,7 +6806,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>11167330</v>
       </c>
@@ -6801,7 +6822,7 @@
       <c r="E96" t="s">
         <v>476</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="1">
         <v>20170216141041</v>
       </c>
       <c r="G96" t="s">
@@ -6817,7 +6838,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>11167331</v>
       </c>
@@ -6833,7 +6854,7 @@
       <c r="E97" t="s">
         <v>481</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="1">
         <v>20170216142340</v>
       </c>
       <c r="G97" t="s">
@@ -6849,7 +6870,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>11167332</v>
       </c>
@@ -6865,7 +6886,7 @@
       <c r="E98" t="s">
         <v>486</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="1">
         <v>20170216000000</v>
       </c>
       <c r="G98" t="s">
@@ -6881,7 +6902,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11167333</v>
       </c>
@@ -6897,7 +6918,7 @@
       <c r="E99" t="s">
         <v>491</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="1">
         <v>20170216151527</v>
       </c>
       <c r="G99" t="s">
@@ -6913,7 +6934,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>11167334</v>
       </c>
@@ -6929,7 +6950,7 @@
       <c r="E100" t="s">
         <v>496</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="1">
         <v>20170216152919</v>
       </c>
       <c r="G100" t="s">
@@ -6945,7 +6966,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>11167335</v>
       </c>
@@ -6961,7 +6982,7 @@
       <c r="E101" t="s">
         <v>500</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="1">
         <v>20170216000000</v>
       </c>
       <c r="G101" t="s">
@@ -6977,7 +6998,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11189849</v>
       </c>
@@ -6993,7 +7014,7 @@
       <c r="E102" t="s">
         <v>140</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="1">
         <v>20170217000000</v>
       </c>
       <c r="G102" t="s">
@@ -7009,7 +7030,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>11189850</v>
       </c>
@@ -7025,7 +7046,7 @@
       <c r="E103" t="s">
         <v>510</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="1">
         <v>20170217000000</v>
       </c>
       <c r="G103" t="s">
@@ -7041,7 +7062,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>11221934</v>
       </c>
@@ -7057,7 +7078,7 @@
       <c r="E104" t="s">
         <v>515</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="1">
         <v>20170219112741</v>
       </c>
       <c r="G104" t="s">
@@ -7073,7 +7094,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11222031</v>
       </c>
@@ -7089,7 +7110,7 @@
       <c r="E105" t="s">
         <v>521</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="1">
         <v>20170220092300</v>
       </c>
       <c r="G105" t="s">
@@ -7105,7 +7126,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11222034</v>
       </c>
@@ -7121,7 +7142,7 @@
       <c r="E106" t="s">
         <v>524</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="1">
         <v>20170220094520</v>
       </c>
       <c r="G106" t="s">
@@ -7137,7 +7158,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11222036</v>
       </c>
@@ -7153,7 +7174,7 @@
       <c r="E107" t="s">
         <v>529</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="1">
         <v>20170220105158</v>
       </c>
       <c r="G107" t="s">
@@ -7169,7 +7190,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11222038</v>
       </c>
@@ -7185,7 +7206,7 @@
       <c r="E108" t="s">
         <v>418</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <v>20170220111331</v>
       </c>
       <c r="G108" t="s">
@@ -7201,7 +7222,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>11222039</v>
       </c>
@@ -7217,7 +7238,7 @@
       <c r="E109" t="s">
         <v>140</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <v>20170220111603</v>
       </c>
       <c r="G109" t="s">
@@ -7233,7 +7254,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11222040</v>
       </c>
@@ -7249,7 +7270,7 @@
       <c r="E110" t="s">
         <v>542</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <v>20170220112023</v>
       </c>
       <c r="G110" t="s">
@@ -7265,7 +7286,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>11222047</v>
       </c>
@@ -7281,7 +7302,7 @@
       <c r="E111" t="s">
         <v>547</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="1">
         <v>20170220133930</v>
       </c>
       <c r="G111" t="s">
@@ -7297,7 +7318,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11222048</v>
       </c>
@@ -7313,7 +7334,7 @@
       <c r="E112" t="s">
         <v>552</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="1">
         <v>20170220135126</v>
       </c>
       <c r="G112" t="s">
@@ -7329,7 +7350,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>11222049</v>
       </c>
@@ -7345,7 +7366,7 @@
       <c r="E113" t="s">
         <v>557</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="1">
         <v>20170220140121</v>
       </c>
       <c r="G113" t="s">
@@ -7361,7 +7382,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11222050</v>
       </c>
@@ -7377,7 +7398,7 @@
       <c r="E114" t="s">
         <v>561</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="1">
         <v>20170220141254</v>
       </c>
       <c r="G114" t="s">
@@ -7393,7 +7414,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11222051</v>
       </c>
@@ -7409,7 +7430,7 @@
       <c r="E115" t="s">
         <v>566</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="1">
         <v>20170220142040</v>
       </c>
       <c r="G115" t="s">
@@ -7425,7 +7446,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>11222054</v>
       </c>
@@ -7441,7 +7462,7 @@
       <c r="E116" t="s">
         <v>140</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="1">
         <v>20170220143841</v>
       </c>
       <c r="G116" t="s">
@@ -7457,7 +7478,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>11222055</v>
       </c>
@@ -7473,7 +7494,7 @@
       <c r="E117" t="s">
         <v>575</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="1">
         <v>20170220144024</v>
       </c>
       <c r="G117" t="s">
@@ -7489,7 +7510,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11222056</v>
       </c>
@@ -7505,7 +7526,7 @@
       <c r="E118" t="s">
         <v>579</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="1">
         <v>20170220000000</v>
       </c>
       <c r="G118" t="s">
@@ -7521,7 +7542,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>11222057</v>
       </c>
@@ -7537,7 +7558,7 @@
       <c r="E119" t="s">
         <v>583</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="1">
         <v>20170220145221</v>
       </c>
       <c r="G119" t="s">
@@ -7553,7 +7574,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>11222058</v>
       </c>
@@ -7569,7 +7590,7 @@
       <c r="E120" t="s">
         <v>588</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="1">
         <v>20170220145638</v>
       </c>
       <c r="G120" t="s">
@@ -7585,7 +7606,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>11222059</v>
       </c>
@@ -7601,7 +7622,7 @@
       <c r="E121" t="s">
         <v>593</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="1">
         <v>20170220150245</v>
       </c>
       <c r="G121" t="s">
@@ -7617,7 +7638,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11222060</v>
       </c>
@@ -7633,7 +7654,7 @@
       <c r="E122" t="s">
         <v>598</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="1">
         <v>20170220152023</v>
       </c>
       <c r="G122" t="s">
@@ -7649,7 +7670,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11222061</v>
       </c>
@@ -7665,7 +7686,7 @@
       <c r="E123" t="s">
         <v>602</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="1">
         <v>20170220000000</v>
       </c>
       <c r="G123" t="s">
@@ -7681,7 +7702,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>11222062</v>
       </c>
@@ -7697,7 +7718,7 @@
       <c r="E124" t="s">
         <v>607</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="1">
         <v>20170220152820</v>
       </c>
       <c r="G124" t="s">
@@ -7713,7 +7734,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>11222063</v>
       </c>
@@ -7729,7 +7750,7 @@
       <c r="E125" t="s">
         <v>612</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="1">
         <v>20170220161503</v>
       </c>
       <c r="G125" t="s">
@@ -7745,7 +7766,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11222064</v>
       </c>
@@ -7761,7 +7782,7 @@
       <c r="E126" t="s">
         <v>13</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="1">
         <v>20170220161636</v>
       </c>
       <c r="G126" t="s">
@@ -7777,7 +7798,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>11222065</v>
       </c>
@@ -7793,7 +7814,7 @@
       <c r="E127" t="s">
         <v>621</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="1">
         <v>20170220000000</v>
       </c>
       <c r="G127" t="s">
@@ -7809,7 +7830,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11222066</v>
       </c>
@@ -7825,7 +7846,7 @@
       <c r="E128" t="s">
         <v>626</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="1">
         <v>20170220171537</v>
       </c>
       <c r="G128" t="s">
@@ -7841,7 +7862,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11222067</v>
       </c>
@@ -7857,7 +7878,7 @@
       <c r="E129" t="s">
         <v>631</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="1">
         <v>20170220171807</v>
       </c>
       <c r="G129" t="s">
@@ -7873,7 +7894,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>11222068</v>
       </c>
@@ -7889,7 +7910,7 @@
       <c r="E130" t="s">
         <v>636</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="1">
         <v>20170220174355</v>
       </c>
       <c r="G130" t="s">
@@ -7905,7 +7926,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>11222069</v>
       </c>
@@ -7921,7 +7942,7 @@
       <c r="E131" t="s">
         <v>641</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="1">
         <v>20170220174756</v>
       </c>
       <c r="G131" t="s">
@@ -7937,7 +7958,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>11222070</v>
       </c>
@@ -7953,7 +7974,7 @@
       <c r="E132" t="s">
         <v>646</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="1">
         <v>20170220181958</v>
       </c>
       <c r="G132" t="s">
@@ -7969,7 +7990,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>11222071</v>
       </c>
@@ -7985,7 +8006,7 @@
       <c r="E133" t="s">
         <v>651</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>20170220000000</v>
       </c>
       <c r="G133" t="s">
@@ -8001,7 +8022,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11222072</v>
       </c>
@@ -8017,7 +8038,7 @@
       <c r="E134" t="s">
         <v>655</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="1">
         <v>20170220213649</v>
       </c>
       <c r="G134" t="s">
@@ -8033,7 +8054,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>11222073</v>
       </c>
@@ -8049,7 +8070,7 @@
       <c r="E135" t="s">
         <v>660</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="1">
         <v>20170220214740</v>
       </c>
       <c r="G135" t="s">
@@ -8065,7 +8086,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11222074</v>
       </c>
@@ -8081,7 +8102,7 @@
       <c r="E136" t="s">
         <v>660</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="1">
         <v>20170220215033</v>
       </c>
       <c r="G136" t="s">
@@ -8097,7 +8118,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>11222075</v>
       </c>
@@ -8113,7 +8134,7 @@
       <c r="E137" t="s">
         <v>25</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="1">
         <v>20170221090337</v>
       </c>
       <c r="G137" t="s">
@@ -8129,7 +8150,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11222077</v>
       </c>
@@ -8145,7 +8166,7 @@
       <c r="E138" t="s">
         <v>670</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="1">
         <v>20170221093414</v>
       </c>
       <c r="G138" t="s">
@@ -8161,7 +8182,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11222078</v>
       </c>
@@ -8177,7 +8198,7 @@
       <c r="E139" t="s">
         <v>675</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="1">
         <v>20170221000000</v>
       </c>
       <c r="G139" t="s">
@@ -8193,7 +8214,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>11222079</v>
       </c>
@@ -8209,7 +8230,7 @@
       <c r="E140" t="s">
         <v>680</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="1">
         <v>20170221100319</v>
       </c>
       <c r="G140" t="s">
@@ -8225,7 +8246,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>11225380</v>
       </c>
@@ -8241,7 +8262,7 @@
       <c r="E141" t="s">
         <v>685</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="1">
         <v>20170221101114</v>
       </c>
       <c r="G141" t="s">
@@ -8257,7 +8278,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>11235055</v>
       </c>
@@ -8273,7 +8294,7 @@
       <c r="E142" t="s">
         <v>690</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="1">
         <v>20170221101604</v>
       </c>
       <c r="G142" t="s">
@@ -8289,7 +8310,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>11235056</v>
       </c>
@@ -8305,7 +8326,7 @@
       <c r="E143" t="s">
         <v>695</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="1">
         <v>20170221102236</v>
       </c>
       <c r="G143" t="s">
@@ -8321,7 +8342,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>11235057</v>
       </c>
@@ -8337,7 +8358,7 @@
       <c r="E144" t="s">
         <v>700</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="1">
         <v>20170221102634</v>
       </c>
       <c r="G144" t="s">
@@ -8353,7 +8374,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>11235058</v>
       </c>
@@ -8369,7 +8390,7 @@
       <c r="E145" t="s">
         <v>30</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>20170221104723</v>
       </c>
       <c r="G145" t="s">
@@ -8385,7 +8406,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>11235059</v>
       </c>
@@ -8401,7 +8422,7 @@
       <c r="E146" t="s">
         <v>709</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="1">
         <v>20170221105108</v>
       </c>
       <c r="G146" t="s">
@@ -8417,7 +8438,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>11235060</v>
       </c>
@@ -8433,7 +8454,7 @@
       <c r="E147" t="s">
         <v>711</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="1">
         <v>20170221113103</v>
       </c>
       <c r="G147" t="s">
@@ -8449,7 +8470,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>11235061</v>
       </c>
@@ -8465,7 +8486,7 @@
       <c r="E148" t="s">
         <v>715</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="1">
         <v>20170221113233</v>
       </c>
       <c r="G148" t="s">
@@ -8481,7 +8502,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>11235062</v>
       </c>
@@ -8497,7 +8518,7 @@
       <c r="E149" t="s">
         <v>720</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="1">
         <v>20170221113528</v>
       </c>
       <c r="G149" t="s">
@@ -8513,7 +8534,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>11235064</v>
       </c>
@@ -8529,7 +8550,7 @@
       <c r="E150" t="s">
         <v>30</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="1">
         <v>20170221134411</v>
       </c>
       <c r="G150" t="s">
@@ -8545,7 +8566,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11235065</v>
       </c>
@@ -8561,7 +8582,7 @@
       <c r="E151" t="s">
         <v>135</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="1">
         <v>20170221000000</v>
       </c>
       <c r="G151" t="s">
@@ -8577,7 +8598,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>11235066</v>
       </c>
@@ -8593,7 +8614,7 @@
       <c r="E152" t="s">
         <v>607</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="1">
         <v>20170221141914</v>
       </c>
       <c r="G152" t="s">
@@ -8609,7 +8630,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>11235067</v>
       </c>
@@ -8625,7 +8646,7 @@
       <c r="E153" t="s">
         <v>140</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>20170221143644</v>
       </c>
       <c r="G153" t="s">
@@ -8641,7 +8662,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>11236062</v>
       </c>
@@ -8657,7 +8678,7 @@
       <c r="E154" t="s">
         <v>294</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="1">
         <v>20170221144007</v>
       </c>
       <c r="G154" t="s">
@@ -8673,7 +8694,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>11236063</v>
       </c>
@@ -8689,7 +8710,7 @@
       <c r="E155" t="s">
         <v>30</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="1">
         <v>20170221144558</v>
       </c>
       <c r="G155" t="s">
@@ -8705,7 +8726,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11236064</v>
       </c>
@@ -8721,7 +8742,7 @@
       <c r="E156" t="s">
         <v>748</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="1">
         <v>20170221145846</v>
       </c>
       <c r="G156" t="s">
@@ -8737,7 +8758,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11236065</v>
       </c>
@@ -8753,7 +8774,7 @@
       <c r="E157" t="s">
         <v>753</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="1">
         <v>20170221153238</v>
       </c>
       <c r="G157" t="s">
@@ -8769,7 +8790,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>11236066</v>
       </c>
@@ -8785,7 +8806,7 @@
       <c r="E158" t="s">
         <v>579</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="1">
         <v>20170221155222</v>
       </c>
       <c r="G158" t="s">
@@ -8801,7 +8822,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>11236067</v>
       </c>
@@ -8817,7 +8838,7 @@
       <c r="E159" t="s">
         <v>13</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>20170221171840</v>
       </c>
       <c r="G159" t="s">
@@ -8833,7 +8854,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11236068</v>
       </c>
@@ -8849,7 +8870,7 @@
       <c r="E160" t="s">
         <v>766</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="1">
         <v>20170221174517</v>
       </c>
       <c r="G160" t="s">
@@ -8865,7 +8886,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11236069</v>
       </c>
@@ -8881,7 +8902,7 @@
       <c r="E161" t="s">
         <v>771</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="1">
         <v>20170221182646</v>
       </c>
       <c r="G161" t="s">
@@ -8897,7 +8918,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11248522</v>
       </c>
@@ -8913,7 +8934,7 @@
       <c r="E162" t="s">
         <v>299</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="1">
         <v>20170222095018</v>
       </c>
       <c r="G162" t="s">
@@ -8929,7 +8950,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>11248523</v>
       </c>
@@ -8945,7 +8966,7 @@
       <c r="E163" t="s">
         <v>780</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="1">
         <v>20170222095929</v>
       </c>
       <c r="G163" t="s">
@@ -8961,7 +8982,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>11248524</v>
       </c>
@@ -8977,7 +8998,7 @@
       <c r="E164" t="s">
         <v>785</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="1">
         <v>20170222103654</v>
       </c>
       <c r="G164" t="s">
@@ -8993,7 +9014,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11248534</v>
       </c>
@@ -9009,7 +9030,7 @@
       <c r="E165" t="s">
         <v>790</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="1">
         <v>20170222111521</v>
       </c>
       <c r="G165" t="s">
@@ -9025,7 +9046,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>11248535</v>
       </c>
@@ -9041,7 +9062,7 @@
       <c r="E166" t="s">
         <v>794</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="1">
         <v>20170222112114</v>
       </c>
       <c r="G166" t="s">
@@ -9057,7 +9078,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11248536</v>
       </c>
@@ -9073,7 +9094,7 @@
       <c r="E167" t="s">
         <v>799</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="1">
         <v>20170222131258</v>
       </c>
       <c r="G167" t="s">
@@ -9089,7 +9110,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11248537</v>
       </c>
@@ -9105,7 +9126,7 @@
       <c r="E168" t="s">
         <v>804</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="1">
         <v>20170222135729</v>
       </c>
       <c r="G168" t="s">
@@ -9121,7 +9142,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11248538</v>
       </c>
@@ -9137,7 +9158,7 @@
       <c r="E169" t="s">
         <v>809</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="1">
         <v>20170222135742</v>
       </c>
       <c r="G169" t="s">
@@ -9153,7 +9174,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11248540</v>
       </c>
@@ -9169,7 +9190,7 @@
       <c r="E170" t="s">
         <v>814</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="1">
         <v>20170222143341</v>
       </c>
       <c r="G170" t="s">
@@ -9185,7 +9206,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>11249654</v>
       </c>
@@ -9201,7 +9222,7 @@
       <c r="E171" t="s">
         <v>13</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="1">
         <v>20170222144654</v>
       </c>
       <c r="G171" t="s">
@@ -9217,7 +9238,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11249655</v>
       </c>
@@ -9233,7 +9254,7 @@
       <c r="E172" t="s">
         <v>823</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="1">
         <v>20170222154109</v>
       </c>
       <c r="G172" t="s">
@@ -9249,7 +9270,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>11249656</v>
       </c>
@@ -9265,7 +9286,7 @@
       <c r="E173" t="s">
         <v>828</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="1">
         <v>20170222000000</v>
       </c>
       <c r="G173" t="s">
@@ -9281,7 +9302,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11249657</v>
       </c>
@@ -9297,7 +9318,7 @@
       <c r="E174" t="s">
         <v>30</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="1">
         <v>20170222000000</v>
       </c>
       <c r="G174" t="s">
@@ -9313,7 +9334,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11249660</v>
       </c>
@@ -9329,7 +9350,7 @@
       <c r="E175" t="s">
         <v>327</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="1">
         <v>20170222162731</v>
       </c>
       <c r="G175" t="s">
@@ -9345,7 +9366,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>11249661</v>
       </c>
@@ -9361,7 +9382,7 @@
       <c r="E176" t="s">
         <v>841</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="1">
         <v>20170222170139</v>
       </c>
       <c r="G176" t="s">
@@ -9377,7 +9398,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11249662</v>
       </c>
@@ -9393,7 +9414,7 @@
       <c r="E177" t="s">
         <v>847</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="1">
         <v>20170222000000</v>
       </c>
       <c r="G177" t="s">
@@ -9409,7 +9430,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>11249663</v>
       </c>
@@ -9425,7 +9446,7 @@
       <c r="E178" t="s">
         <v>851</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="1">
         <v>20170222174119</v>
       </c>
       <c r="G178" t="s">
@@ -9441,7 +9462,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11249665</v>
       </c>
@@ -9457,7 +9478,7 @@
       <c r="E179" t="s">
         <v>30</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="1">
         <v>20170222181024</v>
       </c>
       <c r="G179" t="s">
@@ -9473,7 +9494,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>11249666</v>
       </c>
@@ -9489,7 +9510,7 @@
       <c r="E180" t="s">
         <v>327</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="1">
         <v>20170222191530</v>
       </c>
       <c r="G180" t="s">
@@ -9505,7 +9526,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11260680</v>
       </c>
@@ -9521,7 +9542,7 @@
       <c r="E181" t="s">
         <v>690</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="1">
         <v>20170223094414</v>
       </c>
       <c r="G181" t="s">
@@ -9537,7 +9558,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>11260700</v>
       </c>
@@ -9553,7 +9574,7 @@
       <c r="E182" t="s">
         <v>866</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="1">
         <v>20170223105159</v>
       </c>
       <c r="G182" t="s">
@@ -9569,7 +9590,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>11260701</v>
       </c>
@@ -9585,7 +9606,7 @@
       <c r="E183" t="s">
         <v>871</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="1">
         <v>20170223105405</v>
       </c>
       <c r="G183" t="s">
@@ -9601,7 +9622,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>11260702</v>
       </c>
@@ -9617,7 +9638,7 @@
       <c r="E184" t="s">
         <v>876</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="1">
         <v>20170223110428</v>
       </c>
       <c r="G184" t="s">
@@ -9633,7 +9654,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>11260703</v>
       </c>
@@ -9649,7 +9670,7 @@
       <c r="E185" t="s">
         <v>881</v>
       </c>
-      <c r="F185">
+      <c r="F185" s="1">
         <v>20170223123925</v>
       </c>
       <c r="G185" t="s">
@@ -9665,7 +9686,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>11260704</v>
       </c>
@@ -9681,7 +9702,7 @@
       <c r="E186" t="s">
         <v>886</v>
       </c>
-      <c r="F186">
+      <c r="F186" s="1">
         <v>20170223132427</v>
       </c>
       <c r="G186" t="s">
@@ -9697,7 +9718,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>11260705</v>
       </c>
@@ -9713,7 +9734,7 @@
       <c r="E187" t="s">
         <v>891</v>
       </c>
-      <c r="F187">
+      <c r="F187" s="1">
         <v>20170223134344</v>
       </c>
       <c r="G187" t="s">
@@ -9729,7 +9750,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11260707</v>
       </c>
@@ -9745,7 +9766,7 @@
       <c r="E188" t="s">
         <v>886</v>
       </c>
-      <c r="F188">
+      <c r="F188" s="1">
         <v>20170223142232</v>
       </c>
       <c r="G188" t="s">
@@ -9761,7 +9782,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>11261679</v>
       </c>
@@ -9777,7 +9798,7 @@
       <c r="E189" t="s">
         <v>900</v>
       </c>
-      <c r="F189">
+      <c r="F189" s="1">
         <v>20170223154443</v>
       </c>
       <c r="G189" t="s">
@@ -9793,7 +9814,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>11261680</v>
       </c>
@@ -9809,7 +9830,7 @@
       <c r="E190" t="s">
         <v>905</v>
       </c>
-      <c r="F190">
+      <c r="F190" s="1">
         <v>20170223155556</v>
       </c>
       <c r="G190" t="s">
@@ -9825,7 +9846,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>11261681</v>
       </c>
@@ -9841,7 +9862,7 @@
       <c r="E191" t="s">
         <v>30</v>
       </c>
-      <c r="F191">
+      <c r="F191" s="1">
         <v>20170223160035</v>
       </c>
       <c r="G191" t="s">
@@ -9857,7 +9878,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>11261682</v>
       </c>
@@ -9873,7 +9894,7 @@
       <c r="E192" t="s">
         <v>914</v>
       </c>
-      <c r="F192">
+      <c r="F192" s="1">
         <v>20170223000000</v>
       </c>
       <c r="G192" t="s">
@@ -9889,7 +9910,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>11261684</v>
       </c>
@@ -9905,7 +9926,7 @@
       <c r="E193" t="s">
         <v>919</v>
       </c>
-      <c r="F193">
+      <c r="F193" s="1">
         <v>20170223164013</v>
       </c>
       <c r="G193" t="s">
@@ -9921,7 +9942,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>11261685</v>
       </c>
@@ -9937,7 +9958,7 @@
       <c r="E194" t="s">
         <v>924</v>
       </c>
-      <c r="F194">
+      <c r="F194" s="1">
         <v>20170223171743</v>
       </c>
       <c r="G194" t="s">
@@ -9953,7 +9974,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>11261686</v>
       </c>
@@ -9969,7 +9990,7 @@
       <c r="E195" t="s">
         <v>929</v>
       </c>
-      <c r="F195">
+      <c r="F195" s="1">
         <v>20170223173014</v>
       </c>
       <c r="G195" t="s">
@@ -9985,7 +10006,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>11261687</v>
       </c>
@@ -10001,7 +10022,7 @@
       <c r="E196" t="s">
         <v>933</v>
       </c>
-      <c r="F196">
+      <c r="F196" s="1">
         <v>20170223000000</v>
       </c>
       <c r="G196" t="s">
@@ -10017,7 +10038,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>11261688</v>
       </c>
@@ -10033,7 +10054,7 @@
       <c r="E197" t="s">
         <v>579</v>
       </c>
-      <c r="F197">
+      <c r="F197" s="1">
         <v>20170223000000</v>
       </c>
       <c r="G197" t="s">
@@ -10049,7 +10070,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>11261689</v>
       </c>
@@ -10065,7 +10086,7 @@
       <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="F198">
+      <c r="F198" s="1">
         <v>20170223000000</v>
       </c>
       <c r="G198" t="s">
@@ -10081,7 +10102,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>11261690</v>
       </c>
@@ -10097,7 +10118,7 @@
       <c r="E199" t="s">
         <v>228</v>
       </c>
-      <c r="F199">
+      <c r="F199" s="1">
         <v>20170223182110</v>
       </c>
       <c r="G199" t="s">
@@ -10113,7 +10134,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>11261692</v>
       </c>
@@ -10129,7 +10150,7 @@
       <c r="E200" t="s">
         <v>948</v>
       </c>
-      <c r="F200">
+      <c r="F200" s="1">
         <v>20170223202815</v>
       </c>
       <c r="G200" t="s">
@@ -10145,7 +10166,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>11261693</v>
       </c>
@@ -10161,7 +10182,7 @@
       <c r="E201" t="s">
         <v>953</v>
       </c>
-      <c r="F201">
+      <c r="F201" s="1">
         <v>20170223202932</v>
       </c>
       <c r="G201" t="s">
@@ -10177,7 +10198,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>11261694</v>
       </c>
@@ -10193,7 +10214,7 @@
       <c r="E202" t="s">
         <v>958</v>
       </c>
-      <c r="F202">
+      <c r="F202" s="1">
         <v>20170223000000</v>
       </c>
       <c r="G202" t="s">
@@ -10209,7 +10230,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>11261695</v>
       </c>
@@ -10225,7 +10246,7 @@
       <c r="E203" t="s">
         <v>963</v>
       </c>
-      <c r="F203">
+      <c r="F203" s="1">
         <v>20170224093554</v>
       </c>
       <c r="G203" t="s">
@@ -10241,7 +10262,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11261696</v>
       </c>
@@ -10257,7 +10278,7 @@
       <c r="E204" t="s">
         <v>968</v>
       </c>
-      <c r="F204">
+      <c r="F204" s="1">
         <v>20170224094215</v>
       </c>
       <c r="G204" t="s">
@@ -10273,7 +10294,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>11261697</v>
       </c>
@@ -10289,7 +10310,7 @@
       <c r="E205" t="s">
         <v>973</v>
       </c>
-      <c r="F205">
+      <c r="F205" s="1">
         <v>20170224094504</v>
       </c>
       <c r="G205" t="s">
@@ -10305,7 +10326,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>11261698</v>
       </c>
@@ -10321,7 +10342,7 @@
       <c r="E206" t="s">
         <v>977</v>
       </c>
-      <c r="F206">
+      <c r="F206" s="1">
         <v>20170224094822</v>
       </c>
       <c r="G206" t="s">
@@ -10337,7 +10358,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>11261699</v>
       </c>
@@ -10353,7 +10374,7 @@
       <c r="E207" t="s">
         <v>982</v>
       </c>
-      <c r="F207">
+      <c r="F207" s="1">
         <v>20170224100756</v>
       </c>
       <c r="G207" t="s">
@@ -10369,7 +10390,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11261700</v>
       </c>
@@ -10385,7 +10406,7 @@
       <c r="E208" t="s">
         <v>988</v>
       </c>
-      <c r="F208">
+      <c r="F208" s="1">
         <v>20170224101101</v>
       </c>
       <c r="G208" t="s">
@@ -10401,7 +10422,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>11261701</v>
       </c>
@@ -10417,7 +10438,7 @@
       <c r="E209" t="s">
         <v>993</v>
       </c>
-      <c r="F209">
+      <c r="F209" s="1">
         <v>20170224101217</v>
       </c>
       <c r="G209" t="s">
@@ -10433,7 +10454,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11261702</v>
       </c>
@@ -10449,7 +10470,7 @@
       <c r="E210" t="s">
         <v>998</v>
       </c>
-      <c r="F210">
+      <c r="F210" s="1">
         <v>20170224103004</v>
       </c>
       <c r="G210" t="s">
@@ -10465,7 +10486,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>11272175</v>
       </c>
@@ -10481,7 +10502,7 @@
       <c r="E211" t="s">
         <v>1003</v>
       </c>
-      <c r="F211">
+      <c r="F211" s="1">
         <v>20170224000000</v>
       </c>
       <c r="G211" t="s">
@@ -10497,7 +10518,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11276285</v>
       </c>
@@ -10513,7 +10534,7 @@
       <c r="E212" t="s">
         <v>327</v>
       </c>
-      <c r="F212">
+      <c r="F212" s="1">
         <v>20170224141350</v>
       </c>
       <c r="G212" t="s">
@@ -10529,7 +10550,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11277251</v>
       </c>
@@ -10545,7 +10566,7 @@
       <c r="E213" t="s">
         <v>1011</v>
       </c>
-      <c r="F213">
+      <c r="F213" s="1">
         <v>20170224150924</v>
       </c>
       <c r="G213" t="s">
@@ -10561,7 +10582,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>11277252</v>
       </c>
@@ -10577,7 +10598,7 @@
       <c r="E214" t="s">
         <v>841</v>
       </c>
-      <c r="F214">
+      <c r="F214" s="1">
         <v>20170224000000</v>
       </c>
       <c r="G214" t="s">
@@ -10593,7 +10614,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>11277253</v>
       </c>
@@ -10609,7 +10630,7 @@
       <c r="E215" t="s">
         <v>1020</v>
       </c>
-      <c r="F215">
+      <c r="F215" s="1">
         <v>20170224154122</v>
       </c>
       <c r="G215" t="s">
@@ -10625,7 +10646,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>11277254</v>
       </c>
@@ -10641,7 +10662,7 @@
       <c r="E216" t="s">
         <v>1025</v>
       </c>
-      <c r="F216">
+      <c r="F216" s="1">
         <v>20170224162056</v>
       </c>
       <c r="G216" t="s">
@@ -10657,7 +10678,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>11277255</v>
       </c>
@@ -10673,7 +10694,7 @@
       <c r="E217" t="s">
         <v>1030</v>
       </c>
-      <c r="F217">
+      <c r="F217" s="1">
         <v>20170224173459</v>
       </c>
       <c r="G217" t="s">
@@ -10689,7 +10710,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>11277256</v>
       </c>
@@ -10705,7 +10726,7 @@
       <c r="E218" t="s">
         <v>273</v>
       </c>
-      <c r="F218">
+      <c r="F218" s="1">
         <v>20170224174853</v>
       </c>
       <c r="G218" t="s">
@@ -10721,7 +10742,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>11290453</v>
       </c>
@@ -10737,7 +10758,7 @@
       <c r="E219" t="s">
         <v>1039</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="1">
         <v>20170226163517</v>
       </c>
       <c r="G219" t="s">
@@ -10753,7 +10774,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>11290584</v>
       </c>
@@ -10769,7 +10790,7 @@
       <c r="E220" t="s">
         <v>13</v>
       </c>
-      <c r="F220">
+      <c r="F220" s="1">
         <v>20170227000000</v>
       </c>
       <c r="G220" t="s">
@@ -10785,7 +10806,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>11290587</v>
       </c>
@@ -10801,7 +10822,7 @@
       <c r="E221" t="s">
         <v>13</v>
       </c>
-      <c r="F221">
+      <c r="F221" s="1">
         <v>20170227101757</v>
       </c>
       <c r="G221" t="s">
@@ -10817,7 +10838,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11290588</v>
       </c>
@@ -10833,7 +10854,7 @@
       <c r="E222" t="s">
         <v>332</v>
       </c>
-      <c r="F222">
+      <c r="F222" s="1">
         <v>20170227101915</v>
       </c>
       <c r="G222" t="s">
@@ -10849,7 +10870,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>11290589</v>
       </c>
@@ -10865,7 +10886,7 @@
       <c r="E223" t="s">
         <v>1056</v>
       </c>
-      <c r="F223">
+      <c r="F223" s="1">
         <v>20170227103338</v>
       </c>
       <c r="G223" t="s">
@@ -10881,7 +10902,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11290591</v>
       </c>
@@ -10897,7 +10918,7 @@
       <c r="E224" t="s">
         <v>958</v>
       </c>
-      <c r="F224">
+      <c r="F224" s="1">
         <v>20170227000000</v>
       </c>
       <c r="G224" t="s">
@@ -10913,7 +10934,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>11290592</v>
       </c>
@@ -10929,7 +10950,7 @@
       <c r="E225" t="s">
         <v>1065</v>
       </c>
-      <c r="F225">
+      <c r="F225" s="1">
         <v>20170227104536</v>
       </c>
       <c r="G225" t="s">
@@ -10945,7 +10966,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>11290593</v>
       </c>
@@ -10961,7 +10982,7 @@
       <c r="E226" t="s">
         <v>1069</v>
       </c>
-      <c r="F226">
+      <c r="F226" s="1">
         <v>20170227105450</v>
       </c>
       <c r="G226" t="s">
@@ -10977,7 +10998,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>11290594</v>
       </c>
@@ -10993,7 +11014,7 @@
       <c r="E227" t="s">
         <v>1074</v>
       </c>
-      <c r="F227">
+      <c r="F227" s="1">
         <v>20170227105511</v>
       </c>
       <c r="G227" t="s">
@@ -11009,7 +11030,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>11290595</v>
       </c>
@@ -11025,7 +11046,7 @@
       <c r="E228" t="s">
         <v>1079</v>
       </c>
-      <c r="F228">
+      <c r="F228" s="1">
         <v>20170227105843</v>
       </c>
       <c r="G228" t="s">
@@ -11041,7 +11062,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>11290596</v>
       </c>
@@ -11057,7 +11078,7 @@
       <c r="E229" t="s">
         <v>1084</v>
       </c>
-      <c r="F229">
+      <c r="F229" s="1">
         <v>20170227110105</v>
       </c>
       <c r="G229" t="s">
@@ -11073,7 +11094,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>11290597</v>
       </c>
@@ -11089,7 +11110,7 @@
       <c r="E230" t="s">
         <v>1088</v>
       </c>
-      <c r="F230">
+      <c r="F230" s="1">
         <v>20170227110718</v>
       </c>
       <c r="G230" t="s">
@@ -11105,7 +11126,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>11290599</v>
       </c>
@@ -11121,7 +11142,7 @@
       <c r="E231" t="s">
         <v>1093</v>
       </c>
-      <c r="F231">
+      <c r="F231" s="1">
         <v>20170227112038</v>
       </c>
       <c r="G231" t="s">
@@ -11137,7 +11158,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>11290600</v>
       </c>
@@ -11153,7 +11174,7 @@
       <c r="E232" t="s">
         <v>13</v>
       </c>
-      <c r="F232">
+      <c r="F232" s="1">
         <v>20170227114704</v>
       </c>
       <c r="G232" t="s">
@@ -11169,7 +11190,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>11290601</v>
       </c>
@@ -11185,7 +11206,7 @@
       <c r="E233" t="s">
         <v>1102</v>
       </c>
-      <c r="F233">
+      <c r="F233" s="1">
         <v>20170227130413</v>
       </c>
       <c r="G233" t="s">
@@ -11201,7 +11222,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>11290604</v>
       </c>
@@ -11217,7 +11238,7 @@
       <c r="E234" t="s">
         <v>140</v>
       </c>
-      <c r="F234">
+      <c r="F234" s="1">
         <v>20170227140128</v>
       </c>
       <c r="G234" t="s">
@@ -11233,7 +11254,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>11290605</v>
       </c>
@@ -11249,7 +11270,7 @@
       <c r="E235" t="s">
         <v>1110</v>
       </c>
-      <c r="F235">
+      <c r="F235" s="1">
         <v>20170227155344</v>
       </c>
       <c r="G235" t="s">
@@ -11265,7 +11286,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>11290606</v>
       </c>
@@ -11281,7 +11302,7 @@
       <c r="E236" t="s">
         <v>1115</v>
       </c>
-      <c r="F236">
+      <c r="F236" s="1">
         <v>20170227161157</v>
       </c>
       <c r="G236" t="s">
@@ -11297,7 +11318,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>11290607</v>
       </c>
@@ -11313,7 +11334,7 @@
       <c r="E237" t="s">
         <v>1120</v>
       </c>
-      <c r="F237">
+      <c r="F237" s="1">
         <v>20170227161918</v>
       </c>
       <c r="G237" t="s">
@@ -11329,7 +11350,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>11290611</v>
       </c>
@@ -11345,7 +11366,7 @@
       <c r="E238" t="s">
         <v>1125</v>
       </c>
-      <c r="F238">
+      <c r="F238" s="1">
         <v>20170227173827</v>
       </c>
       <c r="G238" t="s">
@@ -11362,17 +11383,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>